--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\IKP\Robotstat\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F235370-C77F-45F2-B199-380C5068FADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD919B6-BC86-4354-B9FD-938CE84A2EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="16" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="531">
   <si>
     <t>id</t>
   </si>
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4845,11 +4845,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E9873-4D01-4C4C-9C04-997AF590577F}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9675,8 +9675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5727D2C0-C9E4-4D52-B6DB-C0CBA6F4DE15}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9737,8 +9737,11 @@
       <c r="D3" t="s">
         <v>458</v>
       </c>
-      <c r="E3" t="s">
-        <v>379</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9754,6 +9757,12 @@
       <c r="D4" t="s">
         <v>459</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -9767,6 +9776,12 @@
       </c>
       <c r="D5" t="s">
         <v>460</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\IKP\Robotstat\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD919B6-BC86-4354-B9FD-938CE84A2EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6D285-2D90-41A6-A325-2616DC501C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -958,10 +958,6 @@
 после госпитализации</t>
   </si>
   <si>
-    <t>Визитчерез 6 месяцев
-после госпитализации</t>
-  </si>
-  <si>
     <t>Ежегодные наблюдения после операции</t>
   </si>
   <si>
@@ -1715,6 +1711,10 @@
   </si>
   <si>
     <t>Кг/м 2</t>
+  </si>
+  <si>
+    <t>Визит через 6 месяцев
+после госпитализации</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -2261,12 +2261,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2376,12 +2376,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3039,7 +3039,7 @@
         <v>89</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3056,7 +3056,7 @@
         <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3073,7 +3073,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3090,7 +3090,7 @@
         <v>91</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>91</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>91</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3165,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3179,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3193,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3207,10 +3207,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3221,10 +3221,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3235,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3249,10 +3249,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -3263,10 +3263,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3277,10 +3277,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -3291,10 +3291,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3305,10 +3305,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -3319,10 +3319,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -3333,13 +3333,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
         <v>346</v>
-      </c>
-      <c r="D14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,13 +3347,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,13 +3361,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3375,13 +3375,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3389,13 +3389,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3403,13 +3403,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3417,13 +3417,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3445,13 +3445,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3459,10 +3459,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -3473,10 +3473,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -3487,10 +3487,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -3501,10 +3501,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D26">
         <v>13</v>
@@ -3515,10 +3515,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -3529,10 +3529,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -3543,10 +3543,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D30">
         <v>17</v>
@@ -3571,10 +3571,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D31">
         <v>18</v>
@@ -3585,10 +3585,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D32">
         <v>19</v>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33">
         <v>20</v>
@@ -3613,13 +3613,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3627,13 +3627,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,13 +3641,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,13 +3655,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3669,13 +3669,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3683,13 +3683,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,13 +3697,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3711,13 +3711,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3725,10 +3725,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3739,10 +3739,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3753,10 +3753,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3767,10 +3767,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -3781,10 +3781,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -3795,10 +3795,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -3809,10 +3809,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -3823,10 +3823,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -3837,10 +3837,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -3851,10 +3851,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -3879,10 +3879,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -3893,10 +3893,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -3907,10 +3907,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55">
         <v>14</v>
@@ -3921,10 +3921,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56">
         <v>17</v>
@@ -3935,10 +3935,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D57">
         <v>20</v>
@@ -3949,10 +3949,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D58">
         <v>23</v>
@@ -3963,13 +3963,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3977,13 +3977,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3991,13 +3991,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4005,13 +4005,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4019,13 +4019,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4033,13 +4033,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4047,13 +4047,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,13 +4061,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4075,13 +4075,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4089,13 +4089,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4103,13 +4103,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4117,13 +4117,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4131,13 +4131,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,13 +4159,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4173,13 +4173,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4187,10 +4187,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D75">
         <v>10</v>
@@ -4201,10 +4201,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D76">
         <v>12</v>
@@ -4215,10 +4215,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D77">
         <v>14</v>
@@ -4229,10 +4229,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D78">
         <v>16</v>
@@ -4243,10 +4243,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D79">
         <v>18</v>
@@ -4257,10 +4257,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -4305,7 +4305,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4316,7 +4316,7 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4338,7 +4338,7 @@
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
         <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
         <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4371,7 +4371,7 @@
         <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4382,7 +4382,7 @@
         <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4393,7 +4393,7 @@
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4404,7 +4404,7 @@
         <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4415,7 +4415,7 @@
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4437,7 +4437,7 @@
         <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4448,7 +4448,7 @@
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4459,7 +4459,7 @@
         <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4489,10 +4489,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4500,10 +4500,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4511,10 +4511,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,7 +4525,7 @@
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4536,7 +4536,7 @@
         <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
         <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4569,7 +4569,7 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4580,7 +4580,7 @@
         <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4591,7 +4591,7 @@
         <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4599,10 +4599,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4610,10 +4610,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4621,10 +4621,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4635,7 +4635,7 @@
         <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
         <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4657,7 +4657,7 @@
         <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4668,7 +4668,7 @@
         <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4676,10 +4676,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4809,7 +4809,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4833,7 +4833,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -4871,7 +4871,7 @@
         <v>145</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>123</v>
@@ -4897,7 +4897,7 @@
         <v>146</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G2" s="7">
         <f>LEN(B2)</f>
@@ -4921,7 +4921,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G66" si="0">LEN(B3)</f>
@@ -4942,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
@@ -4969,7 +4969,7 @@
         <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
@@ -4993,7 +4993,7 @@
         <v>146</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -5017,7 +5017,7 @@
         <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
@@ -5041,7 +5041,7 @@
         <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -5065,7 +5065,7 @@
         <v>148</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
@@ -5089,7 +5089,7 @@
         <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
@@ -5113,7 +5113,7 @@
         <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
@@ -5137,7 +5137,7 @@
         <v>152</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
@@ -5161,7 +5161,7 @@
         <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
@@ -5185,7 +5185,7 @@
         <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
@@ -5257,7 +5257,7 @@
         <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
@@ -5281,7 +5281,7 @@
         <v>148</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
@@ -5305,7 +5305,7 @@
         <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
@@ -5329,7 +5329,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
@@ -5353,7 +5353,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
@@ -5377,7 +5377,7 @@
         <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
@@ -5401,7 +5401,7 @@
         <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
@@ -5422,10 +5422,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
@@ -5437,7 +5437,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>39</v>
@@ -5446,10 +5446,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
@@ -5461,7 +5461,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>39</v>
@@ -5470,10 +5470,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
@@ -5485,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>39</v>
@@ -5494,10 +5494,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
@@ -5509,7 +5509,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
@@ -5518,10 +5518,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
@@ -5557,7 +5557,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>39</v>
@@ -5566,10 +5566,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
@@ -5581,7 +5581,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>39</v>
@@ -5590,10 +5590,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
@@ -5605,7 +5605,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -5614,10 +5614,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
@@ -5629,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>39</v>
@@ -5638,10 +5638,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
@@ -5653,7 +5653,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>39</v>
@@ -5662,10 +5662,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
@@ -5677,7 +5677,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>39</v>
@@ -5686,10 +5686,10 @@
         <v>4</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
@@ -5701,7 +5701,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>39</v>
@@ -5710,10 +5710,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
@@ -5725,7 +5725,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>39</v>
@@ -5734,10 +5734,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
@@ -5749,7 +5749,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>39</v>
@@ -5758,10 +5758,10 @@
         <v>4</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
@@ -5773,7 +5773,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>39</v>
@@ -5782,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
@@ -5797,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>39</v>
@@ -5806,10 +5806,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
@@ -5821,7 +5821,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>39</v>
@@ -5830,10 +5830,10 @@
         <v>4</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
@@ -5845,7 +5845,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>39</v>
@@ -5854,10 +5854,10 @@
         <v>4</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
@@ -5869,7 +5869,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>39</v>
@@ -5878,10 +5878,10 @@
         <v>4</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
@@ -5893,7 +5893,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>39</v>
@@ -5902,10 +5902,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
@@ -5917,7 +5917,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>39</v>
@@ -5926,10 +5926,10 @@
         <v>4</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
@@ -5941,7 +5941,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>39</v>
@@ -5950,10 +5950,10 @@
         <v>4</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
@@ -5965,7 +5965,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>39</v>
@@ -5974,10 +5974,10 @@
         <v>4</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="0"/>
@@ -5989,7 +5989,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>39</v>
@@ -5998,10 +5998,10 @@
         <v>4</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
@@ -6013,7 +6013,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>39</v>
@@ -6022,10 +6022,10 @@
         <v>4</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
@@ -6046,10 +6046,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
@@ -6070,10 +6070,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
@@ -6094,10 +6094,10 @@
         <v>5</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
@@ -6118,10 +6118,10 @@
         <v>5</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
@@ -6142,10 +6142,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
@@ -6166,10 +6166,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
@@ -6190,10 +6190,10 @@
         <v>5</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
@@ -6214,10 +6214,10 @@
         <v>5</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
@@ -6241,7 +6241,7 @@
         <v>148</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
@@ -6253,7 +6253,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>39</v>
@@ -6265,7 +6265,7 @@
         <v>148</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
@@ -6286,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
@@ -6310,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
@@ -6334,10 +6334,10 @@
         <v>7</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
@@ -6358,10 +6358,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
@@ -6382,10 +6382,10 @@
         <v>7</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
@@ -6406,10 +6406,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
@@ -6430,10 +6430,10 @@
         <v>7</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
@@ -6454,10 +6454,10 @@
         <v>7</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" ref="G67:G104" si="1">LEN(B67)</f>
@@ -6481,7 +6481,7 @@
         <v>194</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="1"/>
@@ -6505,7 +6505,7 @@
         <v>195</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="1"/>
@@ -6529,7 +6529,7 @@
         <v>194</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="1"/>
@@ -6553,7 +6553,7 @@
         <v>189</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="1"/>
@@ -6577,7 +6577,7 @@
         <v>190</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="1"/>
@@ -6601,7 +6601,7 @@
         <v>191</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="1"/>
@@ -6625,7 +6625,7 @@
         <v>192</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="1"/>
@@ -6649,7 +6649,7 @@
         <v>190</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="1"/>
@@ -6673,7 +6673,7 @@
         <v>190</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="1"/>
@@ -6697,7 +6697,7 @@
         <v>193</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="1"/>
@@ -6718,10 +6718,10 @@
         <v>9</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="1"/>
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="1"/>
@@ -6766,10 +6766,10 @@
         <v>9</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="1"/>
@@ -6793,7 +6793,7 @@
         <v>204</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="1"/>
@@ -6814,10 +6814,10 @@
         <v>9</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="1"/>
@@ -6838,10 +6838,10 @@
         <v>9</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="1"/>
@@ -6862,10 +6862,10 @@
         <v>9</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
@@ -6889,7 +6889,7 @@
         <v>206</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="1"/>
@@ -6910,10 +6910,10 @@
         <v>9</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="1"/>
@@ -6937,7 +6937,7 @@
         <v>206</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="1"/>
@@ -6961,7 +6961,7 @@
         <v>209</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="1"/>
@@ -6985,7 +6985,7 @@
         <v>214</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="1"/>
@@ -7009,7 +7009,7 @@
         <v>214</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="1"/>
@@ -7021,7 +7021,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>39</v>
@@ -7033,7 +7033,7 @@
         <v>214</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="1"/>
@@ -7057,7 +7057,7 @@
         <v>214</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="1"/>
@@ -7081,7 +7081,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="1"/>
@@ -7093,7 +7093,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>40</v>
@@ -7102,10 +7102,10 @@
         <v>9</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="1"/>
@@ -7117,7 +7117,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>39</v>
@@ -7126,10 +7126,10 @@
         <v>12</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="1"/>
@@ -7141,7 +7141,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>39</v>
@@ -7150,10 +7150,10 @@
         <v>12</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="1"/>
@@ -7165,7 +7165,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>39</v>
@@ -7174,10 +7174,10 @@
         <v>9</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="1"/>
@@ -7189,7 +7189,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>39</v>
@@ -7207,7 +7207,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>39</v>
@@ -7225,7 +7225,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>39</v>
@@ -7243,7 +7243,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>39</v>
@@ -7261,7 +7261,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>39</v>
@@ -7279,7 +7279,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>39</v>
@@ -7297,7 +7297,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>39</v>
@@ -7315,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>39</v>
@@ -7333,7 +7333,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>39</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>233</v>
@@ -9228,7 +9228,7 @@
         <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -9242,7 +9242,7 @@
         <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -9256,7 +9256,7 @@
         <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -9284,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E137">
         <v>5</v>
@@ -9298,7 +9298,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E138">
         <v>6</v>
@@ -9312,7 +9312,7 @@
         <v>99</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E139">
         <v>7</v>
@@ -9326,7 +9326,7 @@
         <v>99</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -9340,7 +9340,7 @@
         <v>99</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E141">
         <v>9</v>
@@ -9354,7 +9354,7 @@
         <v>99</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -9368,7 +9368,7 @@
         <v>99</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E143">
         <v>11</v>
@@ -9410,7 +9410,7 @@
         <v>103</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>103</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -9438,7 +9438,7 @@
         <v>103</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -9452,7 +9452,7 @@
         <v>103</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -9466,7 +9466,7 @@
         <v>104</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -9494,7 +9494,7 @@
         <v>105</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -9508,7 +9508,7 @@
         <v>105</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>102</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
         <v>272</v>
@@ -9675,14 +9675,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5727D2C0-C9E4-4D52-B6DB-C0CBA6F4DE15}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9692,19 +9692,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" t="s">
         <v>454</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>455</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>456</v>
-      </c>
-      <c r="F1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9735,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10133,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F30D73B-D6D3-43B6-944A-B977C0596F12}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10258,7 +10258,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -10269,7 +10269,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10329,7 +10329,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -10340,7 +10340,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -10351,7 +10351,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -10362,7 +10362,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -10373,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -10384,7 +10384,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -10395,7 +10395,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -10425,10 +10425,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10442,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10456,10 +10456,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10470,10 +10470,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10484,10 +10484,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10498,10 +10498,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10526,10 +10526,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10540,10 +10540,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10554,10 +10554,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10568,10 +10568,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10582,10 +10582,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10596,10 +10596,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10610,10 +10610,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10624,10 +10624,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10638,10 +10638,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10652,10 +10652,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10666,10 +10666,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10680,7 +10680,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
         <v>178</v>
@@ -10694,10 +10694,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10708,10 +10708,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10722,10 +10722,10 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10736,10 +10736,10 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" t="s">
         <v>424</v>
-      </c>
-      <c r="D23" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10781,7 +10781,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10789,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -10797,7 +10797,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10805,7 +10805,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10813,7 +10813,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10821,7 +10821,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10829,7 +10829,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10837,7 +10837,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10845,7 +10845,7 @@
         <v>999</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -10877,13 +10877,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10905,7 +10905,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10916,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10927,7 +10927,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10938,7 +10938,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10949,7 +10949,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10960,7 +10960,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10971,7 +10971,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10982,7 +10982,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10993,7 +10993,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11004,7 +11004,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11026,7 +11026,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11037,7 +11037,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11048,7 +11048,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11059,7 +11059,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11070,7 +11070,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11081,7 +11081,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11092,7 +11092,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11103,7 +11103,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11114,7 +11114,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -11125,7 +11125,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -11136,7 +11136,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -11147,7 +11147,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -11158,7 +11158,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -11169,7 +11169,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -11180,7 +11180,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -11191,7 +11191,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -11202,7 +11202,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -11213,7 +11213,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -11224,7 +11224,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -11235,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -11246,7 +11246,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -11257,7 +11257,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -11268,7 +11268,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -11279,7 +11279,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -11290,7 +11290,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -11301,7 +11301,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -11312,7 +11312,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -11323,7 +11323,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -11359,16 +11359,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" t="s">
-        <v>404</v>
-      </c>
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>335</v>
-      </c>
-      <c r="E1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -11379,7 +11379,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -11466,7 +11466,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -11664,7 +11664,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\IKP\Robotstat\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6D285-2D90-41A6-A325-2616DC501C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B86E3-CA63-44E7-BD7E-A6F1ADDE8176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="18" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -38,10 +38,10 @@
   <definedNames>
     <definedName name="_Hlk16672337" localSheetId="17">IndicatorDef!$C$124</definedName>
     <definedName name="_Hlk20203800" localSheetId="17">IndicatorDef!$C$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Indicator!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Indicator!$A$1:$G$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">IndicatorDef!$A$1:$E$155</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="544">
   <si>
     <t>id</t>
   </si>
@@ -1715,6 +1715,45 @@
   <si>
     <t>Визит через 6 месяцев
 после госпитализации</t>
+  </si>
+  <si>
+    <t>Уровень суставной щели</t>
+  </si>
+  <si>
+    <t>Латеральный дистальный бедренный угол (LDFA) (α)</t>
+  </si>
+  <si>
+    <t>Наклон дистальной части бедренной кости в сагиттальной плоскости (γ)</t>
+  </si>
+  <si>
+    <t>Ротация бедренного компонента</t>
+  </si>
+  <si>
+    <t>Медиальный проксимальный тибиальный угол (MPTA) (β)</t>
+  </si>
+  <si>
+    <t>Наклон плато большеберцовой кости в сагиттальной плоскости (δ)</t>
+  </si>
+  <si>
+    <t>Ротация тибиального  компонента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Феморальный компонент в боковой проекции </t>
+  </si>
+  <si>
+    <t>Тибиальный компонент в прямой проекции</t>
+  </si>
+  <si>
+    <t>Одна зона просветления</t>
+  </si>
+  <si>
+    <t>Две зоны просветления</t>
+  </si>
+  <si>
+    <t>Три зоны просветления</t>
+  </si>
+  <si>
+    <t>Миллиметры</t>
   </si>
 </sst>
 </file>
@@ -2408,6 +2447,9 @@
     <hyperlink ref="A21" location="ProfileSectionAnswer!A1" display="ProfileSectionAnswer" xr:uid="{17354888-5D48-4F00-BB41-A956BC3C3464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2508,6 +2550,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2665,6 +2710,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2991,6 +3039,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -3129,6 +3180,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -4269,6 +4323,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -4684,6 +4741,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -4692,7 +4752,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4838,18 +4898,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E9873-4D01-4C4C-9C04-997AF590577F}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5275,7 +5338,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>148</v>
@@ -5299,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>148</v>
@@ -5323,7 +5386,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>148</v>
@@ -5347,7 +5410,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>148</v>
@@ -5432,7 +5495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5456,7 +5519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5480,7 +5543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -7160,7 +7223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -7184,7 +7247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -7202,7 +7265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -7220,7 +7283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -7238,7 +7301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -7256,7 +7319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -7274,7 +7337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -7292,7 +7355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -7303,14 +7366,17 @@
         <v>39</v>
       </c>
       <c r="D104" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I104" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -7328,7 +7394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -7346,20 +7412,206 @@
         <v>12</v>
       </c>
     </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="7">
+        <v>3</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G107" s="7">
+        <f>LEN(B107)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="7">
+        <v>3</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G108" s="7">
+        <f>LEN(B108)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="7">
+        <v>3</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G109" s="7">
+        <f>LEN(B109)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="7">
+        <v>3</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G110" s="7">
+        <f>LEN(B110)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="7">
+        <v>3</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" s="7">
+        <f>LEN(B111)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G112" s="7">
+        <f>LEN(B112)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="7">
+        <v>3</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="7">
+        <f>LEN(B113)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="7">
+        <v>15</v>
+      </c>
+      <c r="G114" s="7">
+        <f>LEN(B114)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="7">
+        <v>15</v>
+      </c>
+      <c r="G115" s="7">
+        <f>LEN(B115)</f>
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G106" xr:uid="{134D73B3-739A-49FC-9DFD-CA04881738C4}"/>
+  <autoFilter ref="A1:G113" xr:uid="{134D73B3-739A-49FC-9DFD-CA04881738C4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A9A2E6-4BE8-4E3E-A8F4-A1B8FE7FFC47}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155:XFD155"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9529,21 +9781,105 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="7"/>
+      <c r="A155">
+        <v>160</v>
+      </c>
+      <c r="B155" s="7">
+        <v>113</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>161</v>
+      </c>
+      <c r="B156" s="7">
+        <v>113</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>162</v>
+      </c>
+      <c r="B157" s="7">
+        <v>113</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>163</v>
+      </c>
+      <c r="B158" s="7">
+        <v>114</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>164</v>
+      </c>
+      <c r="B159" s="7">
+        <v>114</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>165</v>
+      </c>
+      <c r="B160" s="7">
+        <v>114</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E155" xr:uid="{CCA7113F-F552-471A-8DA4-3D338C0794D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2161C827-307F-4BC8-BD8C-BCD2B14CB6E3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9666,8 +10002,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -10126,6 +10534,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -10133,7 +10544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F30D73B-D6D3-43B6-944A-B977C0596F12}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -10277,6 +10688,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -10403,6 +10817,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -10744,6 +11161,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -10850,6 +11270,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -11336,6 +11759,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -11429,6 +11855,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -11472,6 +11901,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -11577,6 +12009,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -11672,5 +12107,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\IKP\Robotstat\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B86E3-CA63-44E7-BD7E-A6F1ADDE8176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F55604-8F35-4C2D-87FA-2125BCE7CF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="18" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7390,7 +7390,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="7">
-        <f>LEN(B105)</f>
+        <f t="shared" ref="G105:G115" si="2">LEN(B105)</f>
         <v>10</v>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
         <v>13</v>
       </c>
       <c r="G106" s="7">
-        <f>LEN(B106)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
         <v>543</v>
       </c>
       <c r="G107" s="7">
-        <f>LEN(B107)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
         <v>148</v>
       </c>
       <c r="G108" s="7">
-        <f>LEN(B108)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
         <v>148</v>
       </c>
       <c r="G109" s="7">
-        <f>LEN(B109)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
         <v>148</v>
       </c>
       <c r="G110" s="7">
-        <f>LEN(B110)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
         <v>148</v>
       </c>
       <c r="G111" s="7">
-        <f>LEN(B111)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
         <v>148</v>
       </c>
       <c r="G112" s="7">
-        <f>LEN(B112)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>148</v>
       </c>
       <c r="G113" s="7">
-        <f>LEN(B113)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="7">
-        <f>LEN(B114)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="7">
-        <f>LEN(B115)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2161C827-307F-4BC8-BD8C-BCD2B14CB6E3}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -10083,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5727D2C0-C9E4-4D52-B6DB-C0CBA6F4DE15}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10126,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>10</v>
